--- a/biology/Botanique/Aquifoliales/Aquifoliales.xlsx
+++ b/biology/Botanique/Aquifoliales/Aquifoliales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Aquifoliales est un ordre de plantes dicotylédones introduit par la classification phylogénétique des angiospermes. Les Aquifoliales appartiennent au groupe des Euasterids II (Campanulidées), lui-même rattaché aux Asterids (Astéridées) puis au noyau des vraies Dicotylédones.
-En classification phylogénétique APG (1998)[1] l'ordre comprend:
+En classification phylogénétique APG (1998) l'ordre comprend:
 ordre Aquifoliales
 : famille Aquifoliaceae (famille du houx)
 : famille Helwingiaceae
 : famille Phyllonomaceae
-En classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3] l'ordre est étendu pour donner:
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) l'ordre est étendu pour donner:
 ordre Aquifoliales Senft (1856)
 : famille Aquifoliaceae Bercht. &amp; J.Presl (1820) (famille du houx)
 : famille Cardiopteridaceae Blume (1847) (incluant Leptaulaceae Tiegh.)
